--- a/data/trans_dic/IP16A01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A01-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,73; 81,77</t>
+          <t>43,42; 79,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,86; 92,17</t>
+          <t>42,22; 92,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,18; 76,66</t>
+          <t>30,31; 74,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,85; 78,12</t>
+          <t>44,81; 76,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,73; 79,5</t>
+          <t>37,4; 78,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,36; 71,78</t>
+          <t>16,89; 71,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>48,02; 73,99</t>
+          <t>49,29; 73,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>47,72; 78,57</t>
+          <t>46,82; 79,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,76; 66,96</t>
+          <t>30,2; 66,35</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>52,54; 68,47</t>
+          <t>51,83; 68,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,5; 63,95</t>
+          <t>47,08; 64,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>50,28; 67,69</t>
+          <t>50,95; 68,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>59,67; 75,76</t>
+          <t>59,53; 76,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,8; 69,0</t>
+          <t>52,05; 68,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,98; 67,24</t>
+          <t>46,14; 67,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>57,77; 69,4</t>
+          <t>58,7; 70,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>52,06; 64,1</t>
+          <t>51,39; 64,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>51,54; 64,71</t>
+          <t>51,79; 65,14</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,46; 78,7</t>
+          <t>53,28; 77,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,44; 62,78</t>
+          <t>33,18; 62,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44,62; 72,62</t>
+          <t>43,84; 71,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,39; 80,66</t>
+          <t>55,52; 80,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,03; 76,97</t>
+          <t>47,24; 76,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,1; 73,1</t>
+          <t>45,93; 71,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57,57; 76,07</t>
+          <t>58,83; 75,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45,15; 67,15</t>
+          <t>45,76; 67,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,18; 68,41</t>
+          <t>50,42; 68,64</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>56,09; 68,63</t>
+          <t>56,06; 68,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,88; 62,49</t>
+          <t>47,47; 62,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>51,74; 65,6</t>
+          <t>52,02; 65,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>60,48; 72,96</t>
+          <t>60,79; 74,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>54,43; 68,25</t>
+          <t>54,04; 68,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,77; 65,2</t>
+          <t>47,48; 64,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>59,55; 68,8</t>
+          <t>60,26; 68,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53,02; 63,71</t>
+          <t>53,17; 63,29</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>52,5; 63,05</t>
+          <t>51,97; 62,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A01-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -661,37 +661,37 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,38%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,17 +701,17 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,7%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,73%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,12%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,85; 75,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,91; 79,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,87; 66,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,84; 79,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,72; 92,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,03; 77,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>97,01; 100</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,07; 74,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,61; 79,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,37; 63,38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -801,17 +801,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62,45%</t>
+          <t>68,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>73,28%</t>
+          <t>60,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>54,71%</t>
+          <t>61,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>61,12%</t>
+          <t>60,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>59,94%</t>
+          <t>55,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>59,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -841,17 +841,17 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>61,7%</t>
+          <t>64,11%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>64,73%</t>
+          <t>58,15%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>50,1%</t>
+          <t>60,47%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>93,85; 100</t>
+          <t>98,44; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,42; 79,3</t>
+          <t>59,21; 75,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,22; 92,15</t>
+          <t>51,75; 69,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,31; 74,75</t>
+          <t>46,82; 81,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,39; 100</t>
+          <t>98,56; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,81; 76,13</t>
+          <t>51,84; 68,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,4; 78,89</t>
+          <t>46,39; 64,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,89; 71,94</t>
+          <t>50,14; 68,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>97,01; 100</t>
+          <t>99,25; 100</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,29; 73,57</t>
+          <t>58,18; 70,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46,82; 79,8</t>
+          <t>52,2; 64,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,2; 66,35</t>
+          <t>53,27; 73,94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -941,17 +941,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>60,58%</t>
+          <t>68,76%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>55,54%</t>
+          <t>63,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>59,85%</t>
+          <t>59,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>68,2%</t>
+          <t>67,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>60,84%</t>
+          <t>48,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>55,42%</t>
+          <t>58,86%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -981,17 +981,17 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>64,11%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>58,15%</t>
+          <t>56,04%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>57,77%</t>
+          <t>58,96%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,56; 100</t>
+          <t>94,7; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,83; 68,16</t>
+          <t>52,86; 80,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>47,08; 64,7</t>
+          <t>48,65; 78,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>50,95; 68,41</t>
+          <t>45,59; 71,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>98,44; 100</t>
+          <t>96,39; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>59,53; 76,25</t>
+          <t>53,2; 78,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,05; 68,78</t>
+          <t>31,89; 62,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,14; 67,15</t>
+          <t>43,02; 71,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>99,25; 100</t>
+          <t>97,82; 100</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58,7; 70,39</t>
+          <t>59,51; 76,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,39; 64,17</t>
+          <t>45,14; 66,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>51,79; 65,14</t>
+          <t>49,48; 67,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1081,57 +1081,57 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>67,04%</t>
+          <t>67,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,46%</t>
+          <t>61,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>58,53%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>62,4%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>55,14%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>59,03%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>68,76%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>63,64%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>59,37%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
+          <t>64,72%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>56,04%</t>
+          <t>58,3%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>59,19%</t>
+          <t>58,79%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>96,39; 100</t>
+          <t>99,0; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,28; 77,75</t>
+          <t>60,7; 73,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,18; 62,56</t>
+          <t>53,45; 68,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>43,84; 71,17</t>
+          <t>48,7; 76,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,7; 100</t>
+          <t>99,11; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,52; 80,07</t>
+          <t>55,88; 68,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,24; 76,3</t>
+          <t>47,55; 62,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,93; 71,58</t>
+          <t>53,0; 66,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>97,82; 100</t>
+          <t>99,53; 100</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>58,83; 75,94</t>
+          <t>60,41; 69,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45,76; 67,52</t>
+          <t>53,08; 63,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,42; 68,64</t>
+          <t>52,86; 68,42</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>62,4%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>55,14%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>59,21%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>67,23%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>61,36%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>55,64%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>64,72%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>58,3%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>57,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>99,11; 100</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>56,06; 68,84</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>47,47; 62,52</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>52,02; 65,92</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>99,0; 100</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>60,79; 74,06</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>54,04; 68,5</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>47,48; 64,28</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>99,53; 100</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>60,26; 68,64</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>53,17; 63,29</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>51,97; 62,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
